--- a/Features.xlsx
+++ b/Features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20880" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="236">
   <si>
     <t>SMILEfeatures</t>
   </si>
@@ -729,13 +729,16 @@
   </si>
   <si>
     <t>Arff Defaults</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,13 +746,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -761,19 +776,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -830,42 +853,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A55" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:A55"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="SMILEfeatures" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B55" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="SMILEfeatures" dataDxfId="12"/>
+    <tableColumn id="2" name="Done" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:E49" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:E49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C1:E49"/>
   <tableColumns count="3">
-    <tableColumn id="3" name="#" dataDxfId="10"/>
-    <tableColumn id="1" name="Module" dataDxfId="9"/>
-    <tableColumn id="2" name="Operations" dataDxfId="8"/>
+    <tableColumn id="3" name="#" dataDxfId="9"/>
+    <tableColumn id="1" name="Module" dataDxfId="8"/>
+    <tableColumn id="2" name="Operations" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G1:G65" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G1:G65" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="G1:G65"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Variants" dataDxfId="5"/>
+    <tableColumn id="1" name="Variants" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I1:I20" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="I1:I20" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="I1:I20"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Arff Defaults" dataDxfId="2"/>
+    <tableColumn id="1" name="Arff Defaults" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1171,7 +1195,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1215,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>214</v>
       </c>
@@ -1291,6 +1318,9 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1311,6 +1341,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>6</v>
       </c>
@@ -1331,6 +1362,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -1351,6 +1383,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>8</v>
       </c>
@@ -1371,6 +1404,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1391,6 +1425,7 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1">
         <v>10</v>
       </c>
@@ -1411,6 +1446,7 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -1431,6 +1467,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>12</v>
       </c>
@@ -1451,6 +1488,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -1471,6 +1509,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>14</v>
       </c>
@@ -1491,6 +1530,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -1511,6 +1551,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="1">
         <v>16</v>
       </c>
@@ -1531,6 +1572,9 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -1551,6 +1595,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -1571,6 +1616,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="1">
         <v>19</v>
       </c>
@@ -1591,6 +1637,7 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -1608,6 +1655,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="1">
         <v>21</v>
       </c>
@@ -1625,6 +1673,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -1642,6 +1691,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -1659,6 +1709,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="1">
         <v>24</v>
       </c>
